--- a/biology/Biochimie/Substance_fondamentale/Substance_fondamentale.xlsx
+++ b/biology/Biochimie/Substance_fondamentale/Substance_fondamentale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En biologie, la substance fondamentale ou Osséine ou Pars Amorpha est un ensemble de protéines sur lequel se fixent les sels minéraux pour former différents tissus conjonctifs. En association avec les fibres (collagène, élastine et réticuline), elle forme la matrice extracellulaire.
 </t>
@@ -511,7 +523,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un gel turgescent amorphe (très peu dense aux électrons en microscopie électronique), aqueux, comprenant trois types de macromolécules formées de pectines et de glucides :
 Les protéoglycanes sont une association de glycosaminoglycane (partie glucidique formée d'un diose modifié polymérisé en chaîne non ramifiée) et d'une chaîne protéique.
@@ -547,10 +561,12 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La substance fondamentale baigne les cellules et permet :
-l'échange de nutriments entre le plasma sanguin et les cellules[1]. Le rôle nutritif est assuré par de l'eau, des sels minéraux et des protéines que l'on trouve en quantité abondante,
+l'échange de nutriments entre le plasma sanguin et les cellules. Le rôle nutritif est assuré par de l'eau, des sels minéraux et des protéines que l'on trouve en quantité abondante,
 la circulation des substances de signalisation cellulaire (hormones, neurotransmetteurs, cytokines et facteurs de croissance),
 la circulation des cellules immunitaires,
 la protection contre les chocs et les compactions que pourraient subir les organes.
